--- a/src/test/resources/excelsheet/Excel_sheet_for_DataDrivenTesting.xlsx
+++ b/src/test/resources/excelsheet/Excel_sheet_for_DataDrivenTesting.xlsx
@@ -1,23 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araja\eclipse-workspace\TestNG_DsAlgo\src\test\resources\excelsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D641F00-05A9-49F6-B701-84FFFAED34B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Treepage" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Treepage" sheetId="3" r:id="rId3"/>
+    <sheet name="Linkedlist" sheetId="4" r:id="rId4"/>
+    <sheet name="Datastructurespage" sheetId="5" r:id="rId5"/>
+    <sheet name="Graphpage" sheetId="6" r:id="rId6"/>
+    <sheet name="Homepage" sheetId="7" r:id="rId7"/>
+    <sheet name="Queuepage" sheetId="8" r:id="rId8"/>
+    <sheet name="Assertions" sheetId="9" r:id="rId9"/>
+    <sheet name="Arrayspage" sheetId="10" r:id="rId10"/>
+    <sheet name="Stackpage" sheetId="11" r:id="rId11"/>
+    <sheet name="PracticeQuestions" sheetId="12" r:id="rId12"/>
+    <sheet name="RunPracticeQuestions" sheetId="13" r:id="rId13"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="m6SPqg1E1k+b1FnPDZZlgvZO0idvgrcNpgVHJH6VnUw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="EWQBM/Pzo+FJl3OGh/XN1jEaSbGF7D7zWj8VNU+dxu0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="121">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +72,69 @@
     <t>Please fill out this field.</t>
   </si>
   <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Passwordconfirmation</t>
+  </si>
+  <si>
+    <t>navtej@12</t>
+  </si>
+  <si>
+    <t>vidya</t>
+  </si>
+  <si>
+    <t>veena@12</t>
+  </si>
+  <si>
+    <t>veena*2$</t>
+  </si>
+  <si>
+    <t>characters other than Letters, digits and @/./+/-/_ are not allowed</t>
+  </si>
+  <si>
+    <t>123185'</t>
+  </si>
+  <si>
+    <t>Passwords cannot be numeric</t>
+  </si>
+  <si>
+    <t>divya</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>password must contain at least 8 characters</t>
+  </si>
+  <si>
+    <t>kanaka@23</t>
+  </si>
+  <si>
+    <t>kanaka@12</t>
+  </si>
+  <si>
+    <t>Passwords cannot be different</t>
+  </si>
+  <si>
+    <t>praveena</t>
+  </si>
+  <si>
+    <t>praveena12</t>
+  </si>
+  <si>
+    <t>Passwords cannot be similar to full name or any additions to name</t>
+  </si>
+  <si>
+    <t>welcome@123</t>
+  </si>
+  <si>
+    <t>Common passwords cannot be used</t>
+  </si>
+  <si>
+    <t>New Account Created. You are logged in as &lt;username&gt;</t>
+  </si>
+  <si>
     <t>linkText</t>
   </si>
   <si>
@@ -113,69 +196,522 @@
   </si>
   <si>
     <t>Implementation Of BST</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>pythoncode</t>
+  </si>
+  <si>
+    <t>ExpectedMessage</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>print("hello")</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>NameError: name 'hello' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>Creating Linked LIst</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Graph Representations</t>
+  </si>
+  <si>
+    <t>LinkText</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>Message1</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>You are not logged in</t>
+  </si>
+  <si>
+    <t>Get Started</t>
+  </si>
+  <si>
+    <t>data-structures-introduction</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>linked-list</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>Implementation of Queue in Python</t>
+  </si>
+  <si>
+    <t>Implementation using collections.deque</t>
+  </si>
+  <si>
+    <t>Implementation using array</t>
+  </si>
+  <si>
+    <t>Queue Operations</t>
+  </si>
+  <si>
+    <t>Expectedtitle</t>
+  </si>
+  <si>
+    <t>practice Questions</t>
+  </si>
+  <si>
+    <t>Arrays in Python</t>
+  </si>
+  <si>
+    <t>print("Hi")</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>print(Arrays)</t>
+  </si>
+  <si>
+    <t>NameError: name 'Arrays' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>Arrays Using List</t>
+  </si>
+  <si>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
+    <t>Operations in Stack</t>
+  </si>
+  <si>
+    <t>print(Stack)</t>
+  </si>
+  <si>
+    <t>NameError: name 'Stack' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Search the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"def search(input_list, num): 
+if(num in input_list):
+print(""Element Found"")
+\b
+\b
+else:
+print(""Not Found"")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12)"
+</t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>def search(input_list, num):
+ if(num in input_list):
+ output = ("Element Found")
+ \b
+ \b
+ else:
+ output = ("Not Found")
+ \b
+ \b
+ return(output)</t>
+  </si>
+  <si>
+    <t>Submission Successful</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+ count = 0
+ result = 0
+ for i in range(0, len(nums)):
+ if (nums[i] == 0):
+ count = 0
+ \b
+ \b
+ else:
+ count+= 1
+ \b
+ \b
+ result = max(result, count)
+ \b
+ \b
+ print(result)
+ \b
+ \b
+ findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+ max_count = 0
+ current_count = 0
+ for num in nums:
+ if num == 1:
+ current_count += 1
+ max_count = max(max_count, current_count)
+ \b
+ \b
+ else:
+ current_count = 0
+ #\b\b\b
+ \b
+ \b
+ \b
+ \b
+ return max_count</t>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):
+ c=0
+ for i in nums:
+ j=str(i)
+ x=len(j)
+ if x%2==0:
+ c=c+1
+ \b
+ \b
+ \b
+ \b
+ print c
+ return c
+ findNumbers([12,345,2,6,7896])</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):return sum(len(str(num)) % 2 == 0 for num in nums)</t>
+  </si>
+  <si>
+    <t>Squares of  a Sorted Array</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+ squares_list = []
+ for i in range(0, len(nums)):
+ square = nums[i] * nums[i];
+ squares_list.append(square)
+ \b
+ \b
+ sorted_squares_list = sorted(squares_list)
+ print sorted_squares_list;
+ return sorted_squares_list;
+ sortedSquares([-7,-3,2,3,11])</t>
+  </si>
+  <si>
+    <t>[4, 9, 9, 49, 121]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def search(input_list, num):
+    if num in input_list:
+        return "Element Found"
+    else:
+        return "Not Found"
+result = search([12, 23, 45, 67, 6, 90], 12)
+print(result)  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFCFB"/>
+        <bgColor rgb="FFFDFCFB"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -365,25 +901,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="24.88"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -405,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -416,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -427,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -438,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -446,7 +985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -454,19 +993,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1452,439 +1991,1856 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="120" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4">
+      <c r="A3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4">
+      <c r="A6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4">
+      <c r="A7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4">
+      <c r="A8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4">
+      <c r="A9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="109" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="37.5"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>